--- a/php/assets/model.xlsx
+++ b/php/assets/model.xlsx
@@ -14,17 +14,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,9 +40,8 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -60,203 +53,203 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
     <row r="1" spans="1:39" customHeight="0">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Author 1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Author 1 Institution</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Author 2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Author 2 Institution</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Author 3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Author 3 Institution</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Author 4</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Author 4 Institution</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Author 5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Author 5 Institution</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Author 6</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Author 6 Institution</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Author 7</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Author 7 Institution</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Author 8</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Author 8 Institution</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Author 9</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Author 9 Institution</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Author 10</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Author 10 Institution</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Author 11</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Author 11 Institution</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Author 12</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Author 12 Institution</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Author 13</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Author 13 Institution</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Author 14</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Author 14 Institution</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Author 15</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Author 15 Institution</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Author 16</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Author 16 Institution</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Author 17</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Author 17 Institution</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Author 18</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Author 18 Institution</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" spans="1:13" customHeight="0">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Titulo</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Tipo</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 1</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 1 Instituição</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 2</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 2 Instituição</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 3</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 3 Instituicao</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 4</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 4 Instituição</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 5</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 5 Instituição</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 6</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 6 Instituição</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 7</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 7 Instituição</t>
+        </is>
+      </c>
+      <c r="R1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 8</t>
+        </is>
+      </c>
+      <c r="S1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 8 Instituição</t>
+        </is>
+      </c>
+      <c r="T1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 9</t>
+        </is>
+      </c>
+      <c r="U1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 9 Instituição</t>
+        </is>
+      </c>
+      <c r="V1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 10</t>
+        </is>
+      </c>
+      <c r="W1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 10 Instituição</t>
+        </is>
+      </c>
+      <c r="X1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 11</t>
+        </is>
+      </c>
+      <c r="Y1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 11 Instituição</t>
+        </is>
+      </c>
+      <c r="Z1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 12</t>
+        </is>
+      </c>
+      <c r="AA1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 12 Instituição</t>
+        </is>
+      </c>
+      <c r="AB1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 13</t>
+        </is>
+      </c>
+      <c r="AC1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 13 Instituição</t>
+        </is>
+      </c>
+      <c r="AD1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 14</t>
+        </is>
+      </c>
+      <c r="AE1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 14 Instituição</t>
+        </is>
+      </c>
+      <c r="AF1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 15</t>
+        </is>
+      </c>
+      <c r="AG1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 15 Instituição</t>
+        </is>
+      </c>
+      <c r="AH1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 16</t>
+        </is>
+      </c>
+      <c r="AI1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 16 Instituição</t>
+        </is>
+      </c>
+      <c r="AJ1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 17</t>
+        </is>
+      </c>
+      <c r="AK1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 17 Instituição</t>
+        </is>
+      </c>
+      <c r="AL1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 18</t>
+        </is>
+      </c>
+      <c r="AM1" s="0" t="inlineStr">
+        <is>
+          <t>Autor 18 Instituição</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="1:11" customHeight="0">
       <c r="A2" s="0" t="inlineStr">
         <is>
           <t>137458</t>
@@ -274,7 +267,7 @@
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>Bryan Nickson Santana Pinto</t>
+          <t>Bryan Nickson Santana Pinto;</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
@@ -284,7 +277,7 @@
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>Gabriella Almeida  Moura</t>
+          <t>Gabriella Almeida  Moura;</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
@@ -294,7 +287,7 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>Antonio Demuner</t>
+          <t>Antonio Demuner;</t>
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
@@ -304,7 +297,7 @@
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>Elson Santiago Alvarenga</t>
+          <t>Elson Santiago Alvarenga;</t>
         </is>
       </c>
       <c r="K2" s="0" t="inlineStr">
@@ -313,7 +306,7 @@
         </is>
       </c>
     </row>
-    <row r="3" spans="1:7" customHeight="0">
+    <row r="3" spans="1:5" customHeight="0">
       <c r="A3" s="0" t="inlineStr">
         <is>
           <t>137459</t>
@@ -331,7 +324,7 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>Tiago   Bueno de Moraes</t>
+          <t>Tiago   Bueno de Moraes;</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
@@ -340,7 +333,7 @@
         </is>
       </c>
     </row>
-    <row r="4" spans="1:11" customHeight="0">
+    <row r="4" spans="1:9" customHeight="0">
       <c r="A4" s="0" t="inlineStr">
         <is>
           <t>137460</t>
@@ -358,7 +351,7 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>Tatiana Monaretto</t>
+          <t>Tatiana Monaretto;</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
@@ -368,7 +361,7 @@
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>Luiz Alberto Colnago</t>
+          <t>Luiz Alberto Colnago;</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
@@ -378,7 +371,7 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>Tiago   Bueno de Moraes</t>
+          <t>Tiago   Bueno de Moraes;</t>
         </is>
       </c>
       <c r="I4" s="0" t="inlineStr">
@@ -387,7 +380,7 @@
         </is>
       </c>
     </row>
-    <row r="5" spans="1:37" customHeight="0">
+    <row r="5" spans="1:35" customHeight="0">
       <c r="A5" s="0" t="inlineStr">
         <is>
           <t>137464</t>
@@ -405,7 +398,7 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>Katelyn Downey</t>
+          <t>Katelyn Downey;</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
@@ -415,7 +408,7 @@
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>Bing Wu</t>
+          <t>Bing Wu;</t>
         </is>
       </c>
       <c r="G5" s="0" t="inlineStr">
@@ -425,7 +418,7 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>Rudraksha Majumdar</t>
+          <t>Rudraksha Majumdar;</t>
         </is>
       </c>
       <c r="I5" s="0" t="inlineStr">
@@ -435,7 +428,7 @@
       </c>
       <c r="J5" s="0" t="inlineStr">
         <is>
-          <t>Daniel Lysak</t>
+          <t>Daniel Lysak;</t>
         </is>
       </c>
       <c r="K5" s="0" t="inlineStr">
@@ -445,7 +438,7 @@
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>Rajshree Ghosh Biswas</t>
+          <t>Rajshree Ghosh Biswas;</t>
         </is>
       </c>
       <c r="M5" s="0" t="inlineStr">
@@ -455,7 +448,7 @@
       </c>
       <c r="N5" s="0" t="inlineStr">
         <is>
-          <t>Maryam  Tabatabaei-Anaraki</t>
+          <t>Maryam  Tabatabaei-Anaraki;</t>
         </is>
       </c>
       <c r="O5" s="0" t="inlineStr">
@@ -465,7 +458,7 @@
       </c>
       <c r="P5" s="0" t="inlineStr">
         <is>
-          <t>Amy Jenne</t>
+          <t>Amy Jenne;</t>
         </is>
       </c>
       <c r="Q5" s="0" t="inlineStr">
@@ -475,7 +468,7 @@
       </c>
       <c r="R5" s="0" t="inlineStr">
         <is>
-          <t>Xiang You</t>
+          <t>Xiang You;</t>
         </is>
       </c>
       <c r="S5" s="0" t="inlineStr">
@@ -485,7 +478,7 @@
       </c>
       <c r="T5" s="0" t="inlineStr">
         <is>
-          <t>Ronald Soong</t>
+          <t>Ronald Soong;</t>
         </is>
       </c>
       <c r="U5" s="0" t="inlineStr">
@@ -495,7 +488,7 @@
       </c>
       <c r="V5" s="0" t="inlineStr">
         <is>
-          <t>Daniel Lane</t>
+          <t>Daniel Lane;</t>
         </is>
       </c>
       <c r="W5" s="0" t="inlineStr">
@@ -505,7 +498,7 @@
       </c>
       <c r="X5" s="0" t="inlineStr">
         <is>
-          <t>Paul Helm</t>
+          <t>Paul Helm;</t>
         </is>
       </c>
       <c r="Y5" s="0" t="inlineStr">
@@ -515,7 +508,7 @@
       </c>
       <c r="Z5" s="0" t="inlineStr">
         <is>
-          <t>Anna Codina</t>
+          <t>Anna Codina;</t>
         </is>
       </c>
       <c r="AA5" s="0" t="inlineStr">
@@ -525,7 +518,7 @@
       </c>
       <c r="AB5" s="0" t="inlineStr">
         <is>
-          <t>Venita Decker</t>
+          <t>Venita Decker;</t>
         </is>
       </c>
       <c r="AC5" s="0" t="inlineStr">
@@ -535,7 +528,7 @@
       </c>
       <c r="AD5" s="0" t="inlineStr">
         <is>
-          <t>Falko Busse</t>
+          <t>Falko Busse;</t>
         </is>
       </c>
       <c r="AE5" s="0" t="inlineStr">
@@ -545,7 +538,7 @@
       </c>
       <c r="AF5" s="0" t="inlineStr">
         <is>
-          <t>Myrna Simpson</t>
+          <t>Myrna Simpson;</t>
         </is>
       </c>
       <c r="AG5" s="0" t="inlineStr">
@@ -555,7 +548,7 @@
       </c>
       <c r="AH5" s="0" t="inlineStr">
         <is>
-          <t>Andre Simpson</t>
+          <t>Andre Simpson;</t>
         </is>
       </c>
       <c r="AI5" s="0" t="inlineStr">
@@ -564,7 +557,7 @@
         </is>
       </c>
     </row>
-    <row r="6" spans="1:15" customHeight="0">
+    <row r="6" spans="1:13" customHeight="0">
       <c r="A6" s="0" t="inlineStr">
         <is>
           <t>137465</t>
@@ -582,7 +575,7 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>Banny S. B. Correia</t>
+          <t>Banny S. B. Correia;</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
@@ -592,7 +585,7 @@
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>Pollyana Ferreira da Silva Vianna</t>
+          <t>Pollyana Ferreira da Silva Vianna;</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
@@ -602,7 +595,7 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>Caroline Ceribeli</t>
+          <t>Caroline Ceribeli;</t>
         </is>
       </c>
       <c r="I6" s="0" t="inlineStr">
@@ -612,7 +605,7 @@
       </c>
       <c r="J6" s="0" t="inlineStr">
         <is>
-          <t>Luiz Alberto Colnago</t>
+          <t>Luiz Alberto Colnago;</t>
         </is>
       </c>
       <c r="K6" s="0" t="inlineStr">
@@ -622,7 +615,7 @@
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>Daniel Cardoso</t>
+          <t>Daniel Cardoso;</t>
         </is>
       </c>
       <c r="M6" s="0" t="inlineStr">
@@ -631,7 +624,7 @@
         </is>
       </c>
     </row>
-    <row r="7" spans="1:11" customHeight="0">
+    <row r="7" spans="1:9" customHeight="0">
       <c r="A7" s="0" t="inlineStr">
         <is>
           <t>137466</t>
@@ -649,7 +642,7 @@
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>Enya Silva de Oliveira</t>
+          <t>Enya Silva de Oliveira;</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
@@ -659,7 +652,7 @@
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>Luciano Morais Lião</t>
+          <t>Luciano Morais Lião;</t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr">
@@ -669,7 +662,7 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>Gerlon de Almeida Ribeiro Oliveira</t>
+          <t>Gerlon de Almeida Ribeiro Oliveira;</t>
         </is>
       </c>
       <c r="I7" s="0" t="inlineStr">
@@ -678,7 +671,7 @@
         </is>
       </c>
     </row>
-    <row r="8" spans="1:9" customHeight="0">
+    <row r="8" spans="1:7" customHeight="0">
       <c r="A8" s="0" t="inlineStr">
         <is>
           <t>137468</t>
@@ -696,7 +689,7 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>Amanda de Souza</t>
+          <t>Amanda de Souza;</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
@@ -706,7 +699,7 @@
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>Rodrigo Verly</t>
+          <t>Rodrigo Verly;</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
@@ -715,7 +708,7 @@
         </is>
       </c>
     </row>
-    <row r="9" spans="1:17" customHeight="0">
+    <row r="9" spans="1:15" customHeight="0">
       <c r="A9" s="0" t="inlineStr">
         <is>
           <t>137469</t>
@@ -733,7 +726,7 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>Daniel Lysak</t>
+          <t>Daniel Lysak;</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
@@ -743,7 +736,7 @@
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>FLAVIO VINICIUS CRIZOSTOMO  KOCK</t>
+          <t>FLAVIO VINICIUS CRIZOSTOMO  KOCK;</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
@@ -753,7 +746,7 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>Salvatore Mamone</t>
+          <t>Salvatore Mamone;</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
@@ -763,7 +756,7 @@
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
-          <t>Stefan Glöggler</t>
+          <t>Stefan Glöggler;</t>
         </is>
       </c>
       <c r="K9" s="0" t="inlineStr">
@@ -773,7 +766,7 @@
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
-          <t>Ronald Soong</t>
+          <t>Ronald Soong;</t>
         </is>
       </c>
       <c r="M9" s="0" t="inlineStr">
@@ -783,7 +776,7 @@
       </c>
       <c r="N9" s="0" t="inlineStr">
         <is>
-          <t>Andre Simpson</t>
+          <t>Andre Simpson;</t>
         </is>
       </c>
       <c r="O9" s="0" t="inlineStr">
@@ -792,7 +785,7 @@
         </is>
       </c>
     </row>
-    <row r="10" spans="1:11" customHeight="0">
+    <row r="10" spans="1:9" customHeight="0">
       <c r="A10" s="0" t="inlineStr">
         <is>
           <t>137470</t>
@@ -810,7 +803,7 @@
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>Kennedy  Daniel  de Carvalho Santos</t>
+          <t>Kennedy  Daniel  de Carvalho Santos;</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
@@ -820,7 +813,7 @@
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>Guilherme Dal Poggetto</t>
+          <t>Guilherme Dal Poggetto;</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
@@ -830,7 +823,7 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>Cláudio Francisco Tormena</t>
+          <t>Cláudio Francisco Tormena;</t>
         </is>
       </c>
       <c r="I10" s="0" t="inlineStr">
@@ -839,7 +832,7 @@
         </is>
       </c>
     </row>
-    <row r="11" spans="1:15" customHeight="0">
+    <row r="11" spans="1:13" customHeight="0">
       <c r="A11" s="0" t="inlineStr">
         <is>
           <t>137471</t>
@@ -857,7 +850,7 @@
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>Gustavo  Solcia</t>
+          <t>Gustavo  Solcia;</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
@@ -867,7 +860,7 @@
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>Caio de Jesus Oliveira</t>
+          <t>Caio de Jesus Oliveira;</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
@@ -877,7 +870,7 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>Rafael Henrique Ferreira da Silva</t>
+          <t>Rafael Henrique Ferreira da Silva;</t>
         </is>
       </c>
       <c r="I11" s="0" t="inlineStr">
@@ -887,7 +880,7 @@
       </c>
       <c r="J11" s="0" t="inlineStr">
         <is>
-          <t>Felipe Ferraz Derrico</t>
+          <t>Felipe Ferraz Derrico;</t>
         </is>
       </c>
       <c r="K11" s="0" t="inlineStr">
@@ -897,7 +890,7 @@
       </c>
       <c r="L11" s="0" t="inlineStr">
         <is>
-          <t>Fernando Fernandes Paiva</t>
+          <t>Fernando Fernandes Paiva;</t>
         </is>
       </c>
       <c r="M11" s="0" t="inlineStr">
@@ -906,7 +899,7 @@
         </is>
       </c>
     </row>
-    <row r="12" spans="1:13" customHeight="0">
+    <row r="12" spans="1:11" customHeight="0">
       <c r="A12" s="0" t="inlineStr">
         <is>
           <t>137472</t>
@@ -924,7 +917,7 @@
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>Pedro Henrique Soares Cardoso</t>
+          <t>Pedro Henrique Soares Cardoso;</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
@@ -934,7 +927,7 @@
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>Luciano Morais Lião</t>
+          <t>Luciano Morais Lião;</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
@@ -944,7 +937,7 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>Enya Silva de Oliveira</t>
+          <t>Enya Silva de Oliveira;</t>
         </is>
       </c>
       <c r="I12" s="0" t="inlineStr">
@@ -954,7 +947,7 @@
       </c>
       <c r="J12" s="0" t="inlineStr">
         <is>
-          <t>Gerlon de Almeida Ribeiro Oliveira</t>
+          <t>Gerlon de Almeida Ribeiro Oliveira;</t>
         </is>
       </c>
       <c r="K12" s="0" t="inlineStr">
@@ -963,7 +956,7 @@
         </is>
       </c>
     </row>
-    <row r="13" spans="1:11" customHeight="0">
+    <row r="13" spans="1:9" customHeight="0">
       <c r="A13" s="0" t="inlineStr">
         <is>
           <t>137473</t>
@@ -981,7 +974,7 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>Marília Vilela Salvador</t>
+          <t>Marília Vilela Salvador;</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
@@ -991,7 +984,7 @@
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>Tiago  Venâncio</t>
+          <t>Tiago  Venâncio;</t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
@@ -1001,7 +994,7 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>Francisco Paulo dos Santos</t>
+          <t>Francisco Paulo dos Santos;</t>
         </is>
       </c>
       <c r="I13" s="0" t="inlineStr">
@@ -1010,7 +1003,7 @@
         </is>
       </c>
     </row>
-    <row r="14" spans="1:23" customHeight="0">
+    <row r="14" spans="1:21" customHeight="0">
       <c r="A14" s="0" t="inlineStr">
         <is>
           <t>137474</t>
@@ -1028,7 +1021,7 @@
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>Monica Bastawrous</t>
+          <t>Monica Bastawrous;</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
@@ -1038,7 +1031,7 @@
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>Rajshree Ghosh Biswas</t>
+          <t>Rajshree Ghosh Biswas;</t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
@@ -1048,7 +1041,7 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>Ronald Soong</t>
+          <t>Ronald Soong;</t>
         </is>
       </c>
       <c r="I14" s="0" t="inlineStr">
@@ -1058,7 +1051,7 @@
       </c>
       <c r="J14" s="0" t="inlineStr">
         <is>
-          <t>Sagar Wadhwa</t>
+          <t>Sagar Wadhwa;</t>
         </is>
       </c>
       <c r="K14" s="0" t="inlineStr">
@@ -1068,7 +1061,7 @@
       </c>
       <c r="L14" s="0" t="inlineStr">
         <is>
-          <t>Neil Mackinnon</t>
+          <t>Neil Mackinnon;</t>
         </is>
       </c>
       <c r="M14" s="0" t="inlineStr">
@@ -1078,7 +1071,7 @@
       </c>
       <c r="N14" s="0" t="inlineStr">
         <is>
-          <t>Mazin Jouda</t>
+          <t>Mazin Jouda;</t>
         </is>
       </c>
       <c r="O14" s="0" t="inlineStr">
@@ -1088,7 +1081,7 @@
       </c>
       <c r="P14" s="0" t="inlineStr">
         <is>
-          <t>Dario Mager</t>
+          <t>Dario Mager;</t>
         </is>
       </c>
       <c r="Q14" s="0" t="inlineStr">
@@ -1098,7 +1091,7 @@
       </c>
       <c r="R14" s="0" t="inlineStr">
         <is>
-          <t>Jan Korvink</t>
+          <t>Jan Korvink;</t>
         </is>
       </c>
       <c r="S14" s="0" t="inlineStr">
@@ -1108,7 +1101,7 @@
       </c>
       <c r="T14" s="0" t="inlineStr">
         <is>
-          <t>Andre Simpson</t>
+          <t>Andre Simpson;</t>
         </is>
       </c>
       <c r="U14" s="0" t="inlineStr">
@@ -1117,7 +1110,7 @@
         </is>
       </c>
     </row>
-    <row r="15" spans="1:21" customHeight="0">
+    <row r="15" spans="1:19" customHeight="0">
       <c r="A15" s="0" t="inlineStr">
         <is>
           <t>137476</t>
@@ -1135,7 +1128,7 @@
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>Yara Rocha</t>
+          <t>Yara Rocha;</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
@@ -1145,7 +1138,7 @@
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>Victor U. Antunes</t>
+          <t>Victor U. Antunes;</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
@@ -1155,7 +1148,7 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>Yan  Ladeira</t>
+          <t>Yan  Ladeira;</t>
         </is>
       </c>
       <c r="I15" s="0" t="inlineStr">
@@ -1165,7 +1158,7 @@
       </c>
       <c r="J15" s="0" t="inlineStr">
         <is>
-          <t>Adolfo Henrique de Moraes Silva</t>
+          <t>Adolfo Henrique de Moraes Silva;</t>
         </is>
       </c>
       <c r="K15" s="0" t="inlineStr">
@@ -1175,7 +1168,7 @@
       </c>
       <c r="L15" s="0" t="inlineStr">
         <is>
-          <t>Renan Pirolla</t>
+          <t>Renan Pirolla;</t>
         </is>
       </c>
       <c r="M15" s="0" t="inlineStr">
@@ -1185,7 +1178,7 @@
       </c>
       <c r="N15" s="0" t="inlineStr">
         <is>
-          <t>Fábio Gozzo</t>
+          <t>Fábio Gozzo;</t>
         </is>
       </c>
       <c r="O15" s="0" t="inlineStr">
@@ -1195,7 +1188,7 @@
       </c>
       <c r="P15" s="0" t="inlineStr">
         <is>
-          <t>Anthony  Mittermaier</t>
+          <t>Anthony  Mittermaier;</t>
         </is>
       </c>
       <c r="Q15" s="0" t="inlineStr">
@@ -1205,7 +1198,7 @@
       </c>
       <c r="R15" s="0" t="inlineStr">
         <is>
-          <t>Denize  C. Favaro</t>
+          <t>Denize  C. Favaro;</t>
         </is>
       </c>
       <c r="S15" s="0" t="inlineStr">
@@ -1214,7 +1207,7 @@
         </is>
       </c>
     </row>
-    <row r="16" spans="1:9" customHeight="0">
+    <row r="16" spans="1:7" customHeight="0">
       <c r="A16" s="0" t="inlineStr">
         <is>
           <t>137477</t>
@@ -1232,7 +1225,7 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>Cassia  Chiari</t>
+          <t>Cassia  Chiari;</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
@@ -1242,7 +1235,7 @@
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>Cláudio Francisco Tormena</t>
+          <t>Cláudio Francisco Tormena;</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
@@ -1251,7 +1244,7 @@
         </is>
       </c>
     </row>
-    <row r="17" spans="1:11" customHeight="0">
+    <row r="17" spans="1:9" customHeight="0">
       <c r="A17" s="0" t="inlineStr">
         <is>
           <t>137478</t>
@@ -1269,7 +1262,7 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>Flávio Bueno dos Santos</t>
+          <t>Flávio Bueno dos Santos;</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
@@ -1279,7 +1272,7 @@
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>Marcus Cardoso</t>
+          <t>Marcus Cardoso;</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
@@ -1289,7 +1282,7 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>Jose Rivera</t>
+          <t>Jose Rivera;</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
@@ -1298,7 +1291,7 @@
         </is>
       </c>
     </row>
-    <row r="18" spans="1:17" customHeight="0">
+    <row r="18" spans="1:15" customHeight="0">
       <c r="A18" s="0" t="inlineStr">
         <is>
           <t>137479</t>
@@ -1316,7 +1309,7 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>Priscila  Rubim</t>
+          <t>Priscila  Rubim;</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
@@ -1326,7 +1319,7 @@
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>Mychelle Monteiro</t>
+          <t>Mychelle Monteiro;</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
@@ -1336,7 +1329,7 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>Filipe Soares Quirino da Silva</t>
+          <t>Filipe Soares Quirino da Silva;</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
@@ -1346,7 +1339,7 @@
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>Tanos Celmar Costa França</t>
+          <t>Tanos Celmar Costa França;</t>
         </is>
       </c>
       <c r="K18" s="0" t="inlineStr">
@@ -1356,7 +1349,7 @@
       </c>
       <c r="L18" s="0" t="inlineStr">
         <is>
-          <t>Joyce Sobreiro Francisco Diz de Almeida</t>
+          <t>Joyce Sobreiro Francisco Diz de Almeida;</t>
         </is>
       </c>
       <c r="M18" s="0" t="inlineStr">
@@ -1366,7 +1359,7 @@
       </c>
       <c r="N18" s="0" t="inlineStr">
         <is>
-          <t>Jochen  Junker</t>
+          <t>Jochen  Junker;</t>
         </is>
       </c>
       <c r="O18" s="0" t="inlineStr">
@@ -1375,7 +1368,7 @@
         </is>
       </c>
     </row>
-    <row r="19" spans="1:9" customHeight="0">
+    <row r="19" spans="1:7" customHeight="0">
       <c r="A19" s="0" t="inlineStr">
         <is>
           <t>137480</t>
@@ -1393,7 +1386,7 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>Laiza  Bruzadelle Loureiro</t>
+          <t>Laiza  Bruzadelle Loureiro;</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
@@ -1403,7 +1396,7 @@
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>Cláudio Francisco Tormena</t>
+          <t>Cláudio Francisco Tormena;</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
@@ -1412,7 +1405,7 @@
         </is>
       </c>
     </row>
-    <row r="20" spans="1:13" customHeight="0">
+    <row r="20" spans="1:11" customHeight="0">
       <c r="A20" s="0" t="inlineStr">
         <is>
           <t>137486</t>
@@ -1430,7 +1423,7 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>Vinícius  Silva Pinto</t>
+          <t>Vinícius  Silva Pinto;</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
@@ -1440,7 +1433,7 @@
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>Christian Dias Gomides</t>
+          <t>Christian Dias Gomides;</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
@@ -1450,7 +1443,7 @@
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>Igor Flores</t>
+          <t>Igor Flores;</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
@@ -1460,7 +1453,7 @@
       </c>
       <c r="J20" s="0" t="inlineStr">
         <is>
-          <t>Luciano Morais Lião</t>
+          <t>Luciano Morais Lião;</t>
         </is>
       </c>
       <c r="K20" s="0" t="inlineStr">
@@ -1469,7 +1462,7 @@
         </is>
       </c>
     </row>
-    <row r="21" spans="1:13" customHeight="0">
+    <row r="21" spans="1:11" customHeight="0">
       <c r="A21" s="0" t="inlineStr">
         <is>
           <t>137487</t>
@@ -1487,7 +1480,7 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>José Dias de Souza Filho</t>
+          <t>José Dias de Souza Filho;</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
@@ -1497,7 +1490,7 @@
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>Jacqueline Souza</t>
+          <t>Jacqueline Souza;</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
@@ -1507,7 +1500,7 @@
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>Marta de Lana</t>
+          <t>Marta de Lana;</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
@@ -1517,7 +1510,7 @@
       </c>
       <c r="J21" s="0" t="inlineStr">
         <is>
-          <t>Gabriela Roberta Ramos Fernandes</t>
+          <t>Gabriela Roberta Ramos Fernandes;</t>
         </is>
       </c>
       <c r="K21" s="0" t="inlineStr">
@@ -1526,7 +1519,7 @@
         </is>
       </c>
     </row>
-    <row r="22" spans="1:15" customHeight="0">
+    <row r="22" spans="1:13" customHeight="0">
       <c r="A22" s="0" t="inlineStr">
         <is>
           <t>137555</t>
@@ -1544,7 +1537,7 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>Beatriz Rosa  Penna</t>
+          <t>Beatriz Rosa  Penna;</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
@@ -1554,7 +1547,7 @@
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>Thamires Moreira</t>
+          <t>Thamires Moreira;</t>
         </is>
       </c>
       <c r="G22" s="0" t="inlineStr">
@@ -1564,7 +1557,7 @@
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>Danielle Maria  Perpétua de Oliveira Santos</t>
+          <t>Danielle Maria  Perpétua de Oliveira Santos;</t>
         </is>
       </c>
       <c r="I22" s="0" t="inlineStr">
@@ -1574,7 +1567,7 @@
       </c>
       <c r="J22" s="0" t="inlineStr">
         <is>
-          <t>Cristiane Dinis Ano Bom</t>
+          <t>Cristiane Dinis Ano Bom;</t>
         </is>
       </c>
       <c r="K22" s="0" t="inlineStr">
@@ -1584,7 +1577,7 @@
       </c>
       <c r="L22" s="0" t="inlineStr">
         <is>
-          <t>Ana Paula Valente</t>
+          <t>Ana Paula Valente;</t>
         </is>
       </c>
       <c r="M22" s="0" t="inlineStr">
@@ -1593,7 +1586,7 @@
         </is>
       </c>
     </row>
-    <row r="23" spans="1:19" customHeight="0">
+    <row r="23" spans="1:17" customHeight="0">
       <c r="A23" s="0" t="inlineStr">
         <is>
           <t>137556</t>
@@ -1611,7 +1604,7 @@
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>Julie Lopes</t>
+          <t>Julie Lopes;</t>
         </is>
       </c>
       <c r="E23" s="0" t="inlineStr">
@@ -1621,7 +1614,7 @@
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>Beatriz Rosa  Penna</t>
+          <t>Beatriz Rosa  Penna;</t>
         </is>
       </c>
       <c r="G23" s="0" t="inlineStr">
@@ -1631,7 +1624,7 @@
       </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
-          <t>Ana Paula Valente</t>
+          <t>Ana Paula Valente;</t>
         </is>
       </c>
       <c r="I23" s="0" t="inlineStr">
@@ -1641,7 +1634,7 @@
       </c>
       <c r="J23" s="0" t="inlineStr">
         <is>
-          <t>Leonardo  Bartkevihi</t>
+          <t>Leonardo  Bartkevihi;</t>
         </is>
       </c>
       <c r="K23" s="0" t="inlineStr">
@@ -1651,7 +1644,7 @@
       </c>
       <c r="L23" s="0" t="inlineStr">
         <is>
-          <t>Paulo Antônio de Souza Mourão</t>
+          <t>Paulo Antônio de Souza Mourão;</t>
         </is>
       </c>
       <c r="M23" s="0" t="inlineStr">
@@ -1661,7 +1654,7 @@
       </c>
       <c r="N23" s="0" t="inlineStr">
         <is>
-          <t>Francisco  Felipe  Bezerra</t>
+          <t>Francisco  Felipe  Bezerra;</t>
         </is>
       </c>
       <c r="O23" s="0" t="inlineStr">
@@ -1671,7 +1664,7 @@
       </c>
       <c r="P23" s="0" t="inlineStr">
         <is>
-          <t>Adriane Regina Todeschini</t>
+          <t>Adriane Regina Todeschini;</t>
         </is>
       </c>
       <c r="Q23" s="0" t="inlineStr">
@@ -1680,7 +1673,7 @@
         </is>
       </c>
     </row>
-    <row r="24" spans="1:13" customHeight="0">
+    <row r="24" spans="1:11" customHeight="0">
       <c r="A24" s="0" t="inlineStr">
         <is>
           <t>139165</t>
@@ -1698,7 +1691,7 @@
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>Elton Tadeu Montrazi</t>
+          <t>Elton Tadeu Montrazi;</t>
         </is>
       </c>
       <c r="E24" s="0" t="inlineStr">
@@ -1708,7 +1701,7 @@
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>Tatiana Monaretto</t>
+          <t>Tatiana Monaretto;</t>
         </is>
       </c>
       <c r="G24" s="0" t="inlineStr">
@@ -1718,7 +1711,7 @@
       </c>
       <c r="H24" s="0" t="inlineStr">
         <is>
-          <t>Luiz Alberto Colnago</t>
+          <t>Luiz Alberto Colnago;</t>
         </is>
       </c>
       <c r="I24" s="0" t="inlineStr">
@@ -1728,7 +1721,7 @@
       </c>
       <c r="J24" s="0" t="inlineStr">
         <is>
-          <t>Tito José Bonagamba</t>
+          <t>Tito José Bonagamba;</t>
         </is>
       </c>
       <c r="K24" s="0" t="inlineStr">
@@ -1737,7 +1730,7 @@
         </is>
       </c>
     </row>
-    <row r="25" spans="1:7" customHeight="0">
+    <row r="25" spans="1:5" customHeight="0">
       <c r="A25" s="0" t="inlineStr">
         <is>
           <t>139166</t>
@@ -1755,7 +1748,7 @@
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>Tatiana Monaretto</t>
+          <t>Tatiana Monaretto;</t>
         </is>
       </c>
       <c r="E25" s="0" t="inlineStr">
@@ -1764,7 +1757,7 @@
         </is>
       </c>
     </row>
-    <row r="26" spans="1:7" customHeight="0">
+    <row r="26" spans="1:5" customHeight="0">
       <c r="A26" s="0" t="inlineStr">
         <is>
           <t>139167</t>
@@ -1782,7 +1775,7 @@
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>Patrick Giraudeau</t>
+          <t>Patrick Giraudeau;</t>
         </is>
       </c>
       <c r="E26" s="0" t="inlineStr">
@@ -1791,7 +1784,7 @@
         </is>
       </c>
     </row>
-    <row r="27" spans="1:7" customHeight="0">
+    <row r="27" spans="1:5" customHeight="0">
       <c r="A27" s="0" t="inlineStr">
         <is>
           <t>139168</t>
@@ -1809,7 +1802,7 @@
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
-          <t>Andre Simpson</t>
+          <t>Andre Simpson;</t>
         </is>
       </c>
       <c r="E27" s="0" t="inlineStr">
@@ -1818,7 +1811,7 @@
         </is>
       </c>
     </row>
-    <row r="28" spans="1:7" customHeight="0">
+    <row r="28" spans="1:5" customHeight="0">
       <c r="A28" s="0" t="inlineStr">
         <is>
           <t>139169</t>
@@ -1836,7 +1829,7 @@
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>Zeev Wiesman</t>
+          <t>Zeev Wiesman;</t>
         </is>
       </c>
       <c r="E28" s="0" t="inlineStr">
@@ -1845,7 +1838,7 @@
         </is>
       </c>
     </row>
-    <row r="29" spans="1:9" customHeight="0">
+    <row r="29" spans="1:7" customHeight="0">
       <c r="A29" s="0" t="inlineStr">
         <is>
           <t>139170</t>
@@ -1863,7 +1856,7 @@
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>Flavio Vinicius Crizostomo  Kock</t>
+          <t>Flavio Vinicius Crizostomo  Kock;</t>
         </is>
       </c>
       <c r="E29" s="0" t="inlineStr">
@@ -1873,7 +1866,7 @@
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t>Tiago Venâncio</t>
+          <t>Tiago Venâncio;</t>
         </is>
       </c>
       <c r="G29" s="0" t="inlineStr">
@@ -1882,7 +1875,7 @@
         </is>
       </c>
     </row>
-    <row r="30" spans="1:7" customHeight="0">
+    <row r="30" spans="1:5" customHeight="0">
       <c r="A30" s="0" t="inlineStr">
         <is>
           <t>139172</t>
@@ -1900,7 +1893,7 @@
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
-          <t>Juan Miguel López del Amo</t>
+          <t>Juan Miguel López del Amo;</t>
         </is>
       </c>
       <c r="E30" s="0" t="inlineStr">
@@ -1909,7 +1902,7 @@
         </is>
       </c>
     </row>
-    <row r="31" spans="1:7" customHeight="0">
+    <row r="31" spans="1:5" customHeight="0">
       <c r="A31" s="0" t="inlineStr">
         <is>
           <t>139173</t>
@@ -1927,7 +1920,7 @@
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>Jeffrey Reimer</t>
+          <t>Jeffrey Reimer;</t>
         </is>
       </c>
       <c r="E31" s="0" t="inlineStr">
@@ -1936,7 +1929,7 @@
         </is>
       </c>
     </row>
-    <row r="32" spans="1:7" customHeight="0">
+    <row r="32" spans="1:5" customHeight="0">
       <c r="A32" s="0" t="inlineStr">
         <is>
           <t>139174</t>
@@ -1954,7 +1947,7 @@
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>Daniel Huster</t>
+          <t>Daniel Huster;</t>
         </is>
       </c>
       <c r="E32" s="0" t="inlineStr">
@@ -1963,7 +1956,7 @@
         </is>
       </c>
     </row>
-    <row r="33" spans="1:7" customHeight="0">
+    <row r="33" spans="1:5" customHeight="0">
       <c r="A33" s="0" t="inlineStr">
         <is>
           <t>139175</t>
@@ -1981,7 +1974,7 @@
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>Pau Nolis</t>
+          <t>Pau Nolis;</t>
         </is>
       </c>
       <c r="E33" s="0" t="inlineStr">
@@ -1990,7 +1983,7 @@
         </is>
       </c>
     </row>
-    <row r="34" spans="1:7" customHeight="0">
+    <row r="34" spans="1:5" customHeight="0">
       <c r="A34" s="0" t="inlineStr">
         <is>
           <t>139176</t>
@@ -2008,7 +2001,7 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>Josep Saurí</t>
+          <t>Josep Saurí;</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
@@ -2017,7 +2010,7 @@
         </is>
       </c>
     </row>
-    <row r="35" spans="1:7" customHeight="0">
+    <row r="35" spans="1:5" customHeight="0">
       <c r="A35" s="0" t="inlineStr">
         <is>
           <t>139177</t>
@@ -2035,7 +2028,7 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>Gareth Morris</t>
+          <t>Gareth Morris;</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
@@ -2044,7 +2037,7 @@
         </is>
       </c>
     </row>
-    <row r="36" spans="1:7" customHeight="0">
+    <row r="36" spans="1:5" customHeight="0">
       <c r="A36" s="0" t="inlineStr">
         <is>
           <t>139178</t>
@@ -2062,7 +2055,7 @@
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>Antonio Gilberto Ferreira</t>
+          <t>Antonio Gilberto Ferreira;</t>
         </is>
       </c>
       <c r="E36" s="0" t="inlineStr">
@@ -2071,7 +2064,7 @@
         </is>
       </c>
     </row>
-    <row r="37" spans="1:7" customHeight="0">
+    <row r="37" spans="1:5" customHeight="0">
       <c r="A37" s="0" t="inlineStr">
         <is>
           <t>139180</t>
@@ -2089,7 +2082,7 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>Scott Prosser</t>
+          <t>Scott Prosser;</t>
         </is>
       </c>
       <c r="E37" s="0" t="inlineStr">
@@ -2098,7 +2091,7 @@
         </is>
       </c>
     </row>
-    <row r="38" spans="1:11" customHeight="0">
+    <row r="38" spans="1:9" customHeight="0">
       <c r="A38" s="0" t="inlineStr">
         <is>
           <t>139181</t>
@@ -2116,7 +2109,7 @@
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>Jeremy Good</t>
+          <t> Jeremy Good;</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
@@ -2126,7 +2119,7 @@
       </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
-          <t>Eugeny Kryukov</t>
+          <t>Eugeny Kryukov;</t>
         </is>
       </c>
       <c r="G38" s="0" t="inlineStr">
@@ -2136,7 +2129,7 @@
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
-          <t>Dr. Stephen Burgess</t>
+          <t>Dr. Stephen Burgess;</t>
         </is>
       </c>
       <c r="I38" s="0" t="inlineStr">
@@ -2145,7 +2138,7 @@
         </is>
       </c>
     </row>
-    <row r="39" spans="1:7" customHeight="0">
+    <row r="39" spans="1:5" customHeight="0">
       <c r="A39" s="0" t="inlineStr">
         <is>
           <t>139183</t>
@@ -2163,7 +2156,7 @@
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>Giselle de Araujo Lima e Souza</t>
+          <t>Giselle de Araujo Lima e Souza;</t>
         </is>
       </c>
       <c r="E39" s="0" t="inlineStr">
@@ -2172,7 +2165,7 @@
         </is>
       </c>
     </row>
-    <row r="40" spans="1:7" customHeight="0">
+    <row r="40" spans="1:5" customHeight="0">
       <c r="A40" s="0" t="inlineStr">
         <is>
           <t>139184</t>
@@ -2190,7 +2183,7 @@
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>Ariel Sarotti</t>
+          <t>Ariel Sarotti;</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
@@ -2199,7 +2192,7 @@
         </is>
       </c>
     </row>
-    <row r="41" spans="1:9" customHeight="0">
+    <row r="41" spans="1:7" customHeight="0">
       <c r="A41" s="0" t="inlineStr">
         <is>
           <t>139185</t>
@@ -2217,7 +2210,7 @@
       </c>
       <c r="D41" s="0" t="inlineStr">
         <is>
-          <t>Sophia Hayes</t>
+          <t>Sophia Hayes;</t>
         </is>
       </c>
       <c r="E41" s="0" t="inlineStr">
@@ -2227,7 +2220,7 @@
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
-          <t>He Sun</t>
+          <t>He Sun;</t>
         </is>
       </c>
       <c r="G41" s="0" t="inlineStr">
@@ -2236,7 +2229,7 @@
         </is>
       </c>
     </row>
-    <row r="42" spans="1:7" customHeight="0">
+    <row r="42" spans="1:5" customHeight="0">
       <c r="A42" s="0" t="inlineStr">
         <is>
           <t>139186</t>
@@ -2254,7 +2247,7 @@
       </c>
       <c r="D42" s="0" t="inlineStr">
         <is>
-          <t>Jair Freitas</t>
+          <t>Jair Freitas;</t>
         </is>
       </c>
       <c r="E42" s="0" t="inlineStr">
@@ -2263,7 +2256,7 @@
         </is>
       </c>
     </row>
-    <row r="43" spans="1:7" customHeight="0">
+    <row r="43" spans="1:5" customHeight="0">
       <c r="A43" s="0" t="inlineStr">
         <is>
           <t>139187</t>
@@ -2281,7 +2274,7 @@
       </c>
       <c r="D43" s="0" t="inlineStr">
         <is>
-          <t>Toshikazu Miyoshi</t>
+          <t>Toshikazu Miyoshi;</t>
         </is>
       </c>
       <c r="E43" s="0" t="inlineStr">
@@ -2290,7 +2283,7 @@
         </is>
       </c>
     </row>
-    <row r="44" spans="1:7" customHeight="0">
+    <row r="44" spans="1:5" customHeight="0">
       <c r="A44" s="0" t="inlineStr">
         <is>
           <t>139188</t>
@@ -2308,7 +2301,7 @@
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>Marek Pruski</t>
+          <t>Marek Pruski;</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
@@ -2317,7 +2310,7 @@
         </is>
       </c>
     </row>
-    <row r="45" spans="1:7" customHeight="0">
+    <row r="45" spans="1:5" customHeight="0">
       <c r="A45" s="0" t="inlineStr">
         <is>
           <t>139190</t>
@@ -2335,7 +2328,7 @@
       </c>
       <c r="D45" s="0" t="inlineStr">
         <is>
-          <t>Yushan Wei</t>
+          <t>Yushan Wei;</t>
         </is>
       </c>
       <c r="E45" s="0" t="inlineStr">
@@ -2344,7 +2337,7 @@
         </is>
       </c>
     </row>
-    <row r="46" spans="1:7" customHeight="0">
+    <row r="46" spans="1:5" customHeight="0">
       <c r="A46" s="0" t="inlineStr">
         <is>
           <t>139192</t>
@@ -2362,7 +2355,7 @@
       </c>
       <c r="D46" s="0" t="inlineStr">
         <is>
-          <t>Juan Araneda</t>
+          <t>Juan Araneda;</t>
         </is>
       </c>
       <c r="E46" s="0" t="inlineStr">
@@ -2371,7 +2364,7 @@
         </is>
       </c>
     </row>
-    <row r="47" spans="1:7" customHeight="0">
+    <row r="47" spans="1:5" customHeight="0">
       <c r="A47" s="0" t="inlineStr">
         <is>
           <t>139193</t>
@@ -2389,7 +2382,7 @@
       </c>
       <c r="D47" s="0" t="inlineStr">
         <is>
-          <t>Clemens Anklin</t>
+          <t>Clemens Anklin;</t>
         </is>
       </c>
       <c r="E47" s="0" t="inlineStr">
@@ -2398,7 +2391,7 @@
         </is>
       </c>
     </row>
-    <row r="48" spans="1:11" customHeight="0">
+    <row r="48" spans="1:9" customHeight="0">
       <c r="A48" s="0" t="inlineStr">
         <is>
           <t>139194</t>
@@ -2416,7 +2409,7 @@
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>Søren Balling Engelsen</t>
+          <t>Søren Balling Engelsen;</t>
         </is>
       </c>
       <c r="E48" s="0" t="inlineStr">
@@ -2426,7 +2419,7 @@
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
-          <t>Bekzod  Khakimov</t>
+          <t>Bekzod  Khakimov ;</t>
         </is>
       </c>
       <c r="G48" s="0" t="inlineStr">
@@ -2436,7 +2429,7 @@
       </c>
       <c r="H48" s="0" t="inlineStr">
         <is>
-          <t>Viola  Aru</t>
+          <t>Viola  Aru;</t>
         </is>
       </c>
       <c r="I48" s="0" t="inlineStr">
@@ -2445,7 +2438,7 @@
         </is>
       </c>
     </row>
-    <row r="49" spans="1:7" customHeight="0">
+    <row r="49" spans="1:5" customHeight="0">
       <c r="A49" s="0" t="inlineStr">
         <is>
           <t>139195</t>
@@ -2463,7 +2456,7 @@
       </c>
       <c r="D49" s="0" t="inlineStr">
         <is>
-          <t>Felipe Simoes</t>
+          <t>Felipe Simoes;</t>
         </is>
       </c>
       <c r="E49" s="0" t="inlineStr">
@@ -2472,7 +2465,7 @@
         </is>
       </c>
     </row>
-    <row r="50" spans="1:7" customHeight="0">
+    <row r="50" spans="1:5" customHeight="0">
       <c r="A50" s="0" t="inlineStr">
         <is>
           <t>139189</t>
@@ -2490,7 +2483,7 @@
       </c>
       <c r="D50" s="0" t="inlineStr">
         <is>
-          <t>Marcel Lachenmann</t>
+          <t>Marcel Lachenmann;</t>
         </is>
       </c>
       <c r="E50" s="0" t="inlineStr">
@@ -2499,7 +2492,7 @@
         </is>
       </c>
     </row>
-    <row r="51" spans="1:7" customHeight="0">
+    <row r="51" spans="1:5" customHeight="0">
       <c r="A51" s="0" t="inlineStr">
         <is>
           <t>139191</t>
@@ -2517,7 +2510,7 @@
       </c>
       <c r="D51" s="0" t="inlineStr">
         <is>
-          <t>Hector Robert</t>
+          <t>Hector Robert;</t>
         </is>
       </c>
       <c r="E51" s="0" t="inlineStr">
@@ -2526,7 +2519,7 @@
         </is>
       </c>
     </row>
-    <row r="52" spans="1:7" customHeight="0">
+    <row r="52" spans="1:5" customHeight="0">
       <c r="A52" s="0" t="inlineStr">
         <is>
           <t>139179</t>
@@ -2544,7 +2537,7 @@
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>Marcus Vinícius Cangussu Cardoso</t>
+          <t>Marcus Vinícius Cangussu Cardoso;</t>
         </is>
       </c>
       <c r="E52" s="0" t="inlineStr">
@@ -2553,7 +2546,7 @@
         </is>
       </c>
     </row>
-    <row r="53" spans="1:7" customHeight="0">
+    <row r="53" spans="1:5" customHeight="0">
       <c r="A53" s="0" t="inlineStr">
         <is>
           <t>139171</t>
@@ -2571,7 +2564,7 @@
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
-          <t>Annick Moing</t>
+          <t>Annick Moing;</t>
         </is>
       </c>
       <c r="E53" s="0" t="inlineStr">
@@ -2580,7 +2573,7 @@
         </is>
       </c>
     </row>
-    <row r="54" spans="1:15" customHeight="0">
+    <row r="54" spans="1:13" customHeight="0">
       <c r="A54" s="0" t="inlineStr">
         <is>
           <t>137467</t>
@@ -2598,7 +2591,7 @@
       </c>
       <c r="D54" s="0" t="inlineStr">
         <is>
-          <t>Igor d'Anciães Almeida Silva</t>
+          <t>Igor d'Anciães Almeida Silva;</t>
         </is>
       </c>
       <c r="E54" s="0" t="inlineStr">
@@ -2608,7 +2601,7 @@
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>Hellmut Eckert</t>
+          <t>Hellmut Eckert;</t>
         </is>
       </c>
       <c r="G54" s="0" t="inlineStr">
@@ -2618,7 +2611,7 @@
       </c>
       <c r="H54" s="0" t="inlineStr">
         <is>
-          <t>Ana Candida Martins Rodrigues</t>
+          <t>Ana Candida Martins Rodrigues;</t>
         </is>
       </c>
       <c r="I54" s="0" t="inlineStr">
@@ -2628,7 +2621,7 @@
       </c>
       <c r="J54" s="0" t="inlineStr">
         <is>
-          <t>Adraiana Nieto-Munoz</t>
+          <t>Adraiana Nieto-Munoz;</t>
         </is>
       </c>
       <c r="K54" s="0" t="inlineStr">
@@ -2638,7 +2631,7 @@
       </c>
       <c r="L54" s="0" t="inlineStr">
         <is>
-          <t>Vinicius Zallocco</t>
+          <t>Vinicius Zallocco;</t>
         </is>
       </c>
       <c r="M54" s="0" t="inlineStr">
@@ -2647,7 +2640,7 @@
         </is>
       </c>
     </row>
-    <row r="55" spans="1:7" customHeight="0">
+    <row r="55" spans="1:5" customHeight="0">
       <c r="A55" s="0" t="inlineStr">
         <is>
           <t>139182</t>
@@ -2665,7 +2658,7 @@
       </c>
       <c r="D55" s="0" t="inlineStr">
         <is>
-          <t>Esteban Anoardo</t>
+          <t>Esteban Anoardo;</t>
         </is>
       </c>
       <c r="E55" s="0" t="inlineStr">
@@ -2674,7 +2667,7 @@
         </is>
       </c>
     </row>
-    <row r="56" spans="1:41" customHeight="0">
+    <row r="56" spans="1:39" customHeight="0">
       <c r="A56" s="0" t="inlineStr">
         <is>
           <t>137461</t>
@@ -2692,7 +2685,7 @@
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
-          <t>Amy Jenne</t>
+          <t>Amy Jenne;</t>
         </is>
       </c>
       <c r="E56" s="0" t="inlineStr">
@@ -2702,7 +2695,7 @@
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
-          <t>Sebastian Von Der Ecken</t>
+          <t>Sebastian Von Der Ecken;</t>
         </is>
       </c>
       <c r="G56" s="0" t="inlineStr">
@@ -2712,7 +2705,7 @@
       </c>
       <c r="H56" s="0" t="inlineStr">
         <is>
-          <t>Vincent Moxley-Paquette</t>
+          <t>Vincent Moxley-Paquette;</t>
         </is>
       </c>
       <c r="I56" s="0" t="inlineStr">
@@ -2722,7 +2715,7 @@
       </c>
       <c r="J56" s="0" t="inlineStr">
         <is>
-          <t>Ian Swyer</t>
+          <t>Ian Swyer;</t>
         </is>
       </c>
       <c r="K56" s="0" t="inlineStr">
@@ -2732,7 +2725,7 @@
       </c>
       <c r="L56" s="0" t="inlineStr">
         <is>
-          <t>Ronald Soong</t>
+          <t>Ronald Soong;</t>
         </is>
       </c>
       <c r="M56" s="0" t="inlineStr">
@@ -2742,7 +2735,7 @@
       </c>
       <c r="N56" s="0" t="inlineStr">
         <is>
-          <t>Monica Bastawrous</t>
+          <t>Monica Bastawrous;</t>
         </is>
       </c>
       <c r="O56" s="0" t="inlineStr">
@@ -2752,7 +2745,7 @@
       </c>
       <c r="P56" s="0" t="inlineStr">
         <is>
-          <t>Falko Busse</t>
+          <t>Falko Busse;</t>
         </is>
       </c>
       <c r="Q56" s="0" t="inlineStr">
@@ -2762,7 +2755,7 @@
       </c>
       <c r="R56" s="0" t="inlineStr">
         <is>
-          <t>Wolfgang Bermel</t>
+          <t>Wolfgang Bermel;</t>
         </is>
       </c>
       <c r="S56" s="0" t="inlineStr">
@@ -2772,7 +2765,7 @@
       </c>
       <c r="T56" s="0" t="inlineStr">
         <is>
-          <t>Daniel Schmidig</t>
+          <t>Daniel Schmidig;</t>
         </is>
       </c>
       <c r="U56" s="0" t="inlineStr">
@@ -2782,7 +2775,7 @@
       </c>
       <c r="V56" s="0" t="inlineStr">
         <is>
-          <t>Till Kuehn</t>
+          <t>Till Kuehn;</t>
         </is>
       </c>
       <c r="W56" s="0" t="inlineStr">
@@ -2792,7 +2785,7 @@
       </c>
       <c r="X56" s="0" t="inlineStr">
         <is>
-          <t>Rainer Kuemmerle</t>
+          <t>Rainer Kuemmerle;</t>
         </is>
       </c>
       <c r="Y56" s="0" t="inlineStr">
@@ -2802,7 +2795,7 @@
       </c>
       <c r="Z56" s="0" t="inlineStr">
         <is>
-          <t>Danijela Al Adwan-Stojilkovic</t>
+          <t>Danijela Al Adwan-Stojilkovic;</t>
         </is>
       </c>
       <c r="AA56" s="0" t="inlineStr">
@@ -2812,7 +2805,7 @@
       </c>
       <c r="AB56" s="0" t="inlineStr">
         <is>
-          <t>Stephan Graf</t>
+          <t>Stephan Graf;</t>
         </is>
       </c>
       <c r="AC56" s="0" t="inlineStr">
@@ -2822,7 +2815,7 @@
       </c>
       <c r="AD56" s="0" t="inlineStr">
         <is>
-          <t>Thomas Frei</t>
+          <t>Thomas Frei;</t>
         </is>
       </c>
       <c r="AE56" s="0" t="inlineStr">
@@ -2832,7 +2825,7 @@
       </c>
       <c r="AF56" s="0" t="inlineStr">
         <is>
-          <t>Martine Monette</t>
+          <t>Martine Monette;</t>
         </is>
       </c>
       <c r="AG56" s="0" t="inlineStr">
@@ -2842,7 +2835,7 @@
       </c>
       <c r="AH56" s="0" t="inlineStr">
         <is>
-          <t>Henry Stronks</t>
+          <t>Henry Stronks;</t>
         </is>
       </c>
       <c r="AI56" s="0" t="inlineStr">
@@ -2852,7 +2845,7 @@
       </c>
       <c r="AJ56" s="0" t="inlineStr">
         <is>
-          <t>Aaron Wheeler</t>
+          <t>Aaron Wheeler;</t>
         </is>
       </c>
       <c r="AK56" s="0" t="inlineStr">
@@ -2862,7 +2855,7 @@
       </c>
       <c r="AL56" s="0" t="inlineStr">
         <is>
-          <t>Andre Simpson</t>
+          <t>Andre Simpson;</t>
         </is>
       </c>
       <c r="AM56" s="0" t="inlineStr">
@@ -2871,7 +2864,7 @@
         </is>
       </c>
     </row>
-    <row r="57" spans="1:31" customHeight="0">
+    <row r="57" spans="1:29" customHeight="0">
       <c r="A57" s="0" t="inlineStr">
         <is>
           <t>137462</t>
@@ -2889,7 +2882,7 @@
       </c>
       <c r="D57" s="0" t="inlineStr">
         <is>
-          <t>Rajshree Ghosh Biswas</t>
+          <t>Rajshree Ghosh Biswas;</t>
         </is>
       </c>
       <c r="E57" s="0" t="inlineStr">
@@ -2899,7 +2892,7 @@
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
-          <t>Ronald Soong</t>
+          <t>Ronald Soong;</t>
         </is>
       </c>
       <c r="G57" s="0" t="inlineStr">
@@ -2909,7 +2902,7 @@
       </c>
       <c r="H57" s="0" t="inlineStr">
         <is>
-          <t>Paris Ning</t>
+          <t>Paris Ning;</t>
         </is>
       </c>
       <c r="I57" s="0" t="inlineStr">
@@ -2919,7 +2912,7 @@
       </c>
       <c r="J57" s="0" t="inlineStr">
         <is>
-          <t>Daniel Lane</t>
+          <t>Daniel Lane;</t>
         </is>
       </c>
       <c r="K57" s="0" t="inlineStr">
@@ -2929,7 +2922,7 @@
       </c>
       <c r="L57" s="0" t="inlineStr">
         <is>
-          <t>Daniel Schmidig</t>
+          <t>Daniel Schmidig;</t>
         </is>
       </c>
       <c r="M57" s="0" t="inlineStr">
@@ -2939,7 +2932,7 @@
       </c>
       <c r="N57" s="0" t="inlineStr">
         <is>
-          <t>Peter de Castro</t>
+          <t>Peter de Castro;</t>
         </is>
       </c>
       <c r="O57" s="0" t="inlineStr">
@@ -2949,7 +2942,7 @@
       </c>
       <c r="P57" s="0" t="inlineStr">
         <is>
-          <t>Stephan Graf</t>
+          <t>Stephan Graf;</t>
         </is>
       </c>
       <c r="Q57" s="0" t="inlineStr">
@@ -2959,7 +2952,7 @@
       </c>
       <c r="R57" s="0" t="inlineStr">
         <is>
-          <t>Sebastian Wegner</t>
+          <t>Sebastian Wegner;</t>
         </is>
       </c>
       <c r="S57" s="0" t="inlineStr">
@@ -2969,7 +2962,7 @@
       </c>
       <c r="T57" s="0" t="inlineStr">
         <is>
-          <t>Falko Busse</t>
+          <t>Falko Busse;</t>
         </is>
       </c>
       <c r="U57" s="0" t="inlineStr">
@@ -2979,7 +2972,7 @@
       </c>
       <c r="V57" s="0" t="inlineStr">
         <is>
-          <t>Jochem Struppe</t>
+          <t>Jochem Struppe;</t>
         </is>
       </c>
       <c r="W57" s="0" t="inlineStr">
@@ -2989,7 +2982,7 @@
       </c>
       <c r="X57" s="0" t="inlineStr">
         <is>
-          <t>Michael  Fey</t>
+          <t>Michael  Fey;</t>
         </is>
       </c>
       <c r="Y57" s="0" t="inlineStr">
@@ -2999,7 +2992,7 @@
       </c>
       <c r="Z57" s="0" t="inlineStr">
         <is>
-          <t>Myrna Simpson</t>
+          <t>Myrna Simpson;</t>
         </is>
       </c>
       <c r="AA57" s="0" t="inlineStr">
@@ -3009,7 +3002,7 @@
       </c>
       <c r="AB57" s="0" t="inlineStr">
         <is>
-          <t>Andre Simpson</t>
+          <t>Andre Simpson;</t>
         </is>
       </c>
       <c r="AC57" s="0" t="inlineStr">
@@ -3018,7 +3011,7 @@
         </is>
       </c>
     </row>
-    <row r="58" spans="1:19" customHeight="0">
+    <row r="58" spans="1:17" customHeight="0">
       <c r="A58" s="0" t="inlineStr">
         <is>
           <t>137475</t>
@@ -3036,7 +3029,7 @@
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>VANESSA BEZERRA DE OLIVEIRA LEITE</t>
+          <t>VANESSA BEZERRA DE OLIVEIRA LEITE;</t>
         </is>
       </c>
       <c r="E58" s="0" t="inlineStr">
@@ -3046,7 +3039,7 @@
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>Talita Stelling De Araujo</t>
+          <t>Talita Stelling De Araujo;</t>
         </is>
       </c>
       <c r="G58" s="0" t="inlineStr">
@@ -3056,7 +3049,7 @@
       </c>
       <c r="H58" s="0" t="inlineStr">
         <is>
-          <t>Rafael Alves de Andrade</t>
+          <t>Rafael Alves de Andrade;</t>
         </is>
       </c>
       <c r="I58" s="0" t="inlineStr">
@@ -3064,38 +3057,43 @@
           <t>Universidade Federal do Rio de Janeiro</t>
         </is>
       </c>
-      <c r="K58" s="0" t="inlineStr">
+      <c r="J58" s="0" t="inlineStr">
+        <is>
+          <t> ;</t>
+        </is>
+      </c>
+      <c r="L58" s="0" t="inlineStr">
+        <is>
+          <t>Fabio C. L. Almeida;</t>
+        </is>
+      </c>
+      <c r="M58" s="0" t="inlineStr">
         <is>
           <t>Universidade Federal do Rio de Janeiro</t>
         </is>
       </c>
-      <c r="L58" s="0" t="inlineStr">
-        <is>
-          <t>Fabio C. L. Almeida</t>
-        </is>
-      </c>
-      <c r="M58" s="0" t="inlineStr">
+      <c r="N58" s="0" t="inlineStr">
+        <is>
+          <t>Marcius da Silva Almeida;</t>
+        </is>
+      </c>
+      <c r="O58" s="0" t="inlineStr">
         <is>
           <t>Universidade Federal do Rio de Janeiro</t>
         </is>
       </c>
-      <c r="N58" s="0" t="inlineStr">
-        <is>
-          <t>Marcius da Silva Almeida</t>
-        </is>
-      </c>
-      <c r="O58" s="0" t="inlineStr">
+      <c r="P58" s="0" t="inlineStr">
+        <is>
+          <t>Claudia Jorge do Nascimento;</t>
+        </is>
+      </c>
+      <c r="Q58" s="0" t="inlineStr">
         <is>
           <t>Universidade Federal do Estado do Rio de Janeiro</t>
         </is>
       </c>
-      <c r="P58" s="0" t="inlineStr">
-        <is>
-          <t>Claudia Jorge do Nascimento</t>
-        </is>
-      </c>
-    </row>
-    <row r="59" spans="1:7" customHeight="0">
+    </row>
+    <row r="59" spans="1:5" customHeight="0">
       <c r="A59" s="0" t="inlineStr">
         <is>
           <t>139532</t>
@@ -3113,7 +3111,7 @@
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>Fabio Ceneviva  Lacerda Almeida</t>
+          <t>Fabio Ceneviva  Lacerda Almeida;</t>
         </is>
       </c>
       <c r="E59" s="0" t="inlineStr">
@@ -3122,7 +3120,7 @@
         </is>
       </c>
     </row>
-    <row r="60" spans="1:7" customHeight="0">
+    <row r="60" spans="1:5" customHeight="0">
       <c r="A60" s="0" t="inlineStr">
         <is>
           <t>139533</t>
@@ -3140,7 +3138,7 @@
       </c>
       <c r="D60" s="0" t="inlineStr">
         <is>
-          <t>Clemens  Anklin</t>
+          <t>Clemens  Anklin;</t>
         </is>
       </c>
       <c r="E60" s="0" t="inlineStr">
@@ -3149,7 +3147,7 @@
         </is>
       </c>
     </row>
-    <row r="61" spans="1:7" customHeight="0">
+    <row r="61" spans="1:5" customHeight="0">
       <c r="A61" s="0" t="inlineStr">
         <is>
           <t>139534</t>
@@ -3167,7 +3165,7 @@
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>Julien Orts</t>
+          <t>Julien Orts;</t>
         </is>
       </c>
       <c r="E61" s="0" t="inlineStr">
@@ -3176,7 +3174,7 @@
         </is>
       </c>
     </row>
-    <row r="62" spans="1:7" customHeight="0">
+    <row r="62" spans="1:5" customHeight="0">
       <c r="A62" s="0" t="inlineStr">
         <is>
           <t>139531</t>
@@ -3194,7 +3192,7 @@
       </c>
       <c r="D62" s="0" t="inlineStr">
         <is>
-          <t>Donald Bouchard</t>
+          <t>Donald Bouchard;</t>
         </is>
       </c>
       <c r="E62" s="0" t="inlineStr">
@@ -3203,7 +3201,7 @@
         </is>
       </c>
     </row>
-    <row r="63" spans="1:15" customHeight="0">
+    <row r="63" spans="1:13" customHeight="0">
       <c r="A63" s="0" t="inlineStr">
         <is>
           <t>137463</t>
@@ -3221,7 +3219,7 @@
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
-          <t>Giselle de Araujo Lima e Souza</t>
+          <t>Giselle de Araujo Lima e Souza;</t>
         </is>
       </c>
       <c r="E63" s="0" t="inlineStr">
@@ -3231,7 +3229,7 @@
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>Maria Enrica Di Pietro</t>
+          <t>Maria Enrica Di Pietro;</t>
         </is>
       </c>
       <c r="G63" s="0" t="inlineStr">
@@ -3241,7 +3239,7 @@
       </c>
       <c r="H63" s="0" t="inlineStr">
         <is>
-          <t>Giovanni Battista Appetecchi</t>
+          <t>Giovanni Battista Appetecchi;</t>
         </is>
       </c>
       <c r="I63" s="0" t="inlineStr">
@@ -3251,7 +3249,7 @@
       </c>
       <c r="J63" s="0" t="inlineStr">
         <is>
-          <t>Patricia Fazzio Martinez</t>
+          <t>Patricia Fazzio Martinez;</t>
         </is>
       </c>
       <c r="K63" s="0" t="inlineStr">
@@ -3261,7 +3259,7 @@
       </c>
       <c r="L63" s="0" t="inlineStr">
         <is>
-          <t>Andrea Mele</t>
+          <t>Andrea Mele;</t>
         </is>
       </c>
       <c r="M63" s="0" t="inlineStr">
